--- a/planilha tcc.xlsx
+++ b/planilha tcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinnys2\Desktop\tcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7399D1-21B7-4569-947E-842E42185F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F641BB6C-79D6-4235-A633-CE1D0453CEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Gabriel Eduardo, Guilherme Cultorato e Vinicius Henrique</t>
-  </si>
-  <si>
-    <t>https://github.com/Vinnys2/TCC</t>
   </si>
   <si>
     <t xml:space="preserve">criar index </t>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t>criar_lote</t>
+  </si>
+  <si>
+    <t>https://github.com/Vinnys2/tcc1.1</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -652,16 +652,16 @@
         <v>44345</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="5">
         <v>44346</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -669,16 +669,16 @@
         <v>44345</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
         <v>44346</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -686,16 +686,16 @@
         <v>44345</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
         <v>44346</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -703,33 +703,33 @@
         <v>44345</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
         <v>44346</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7">
         <v>44348</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -737,16 +737,16 @@
         <v>44348</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
         <v>44348</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -768,12 +768,12 @@
         <v>7</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -785,7 +785,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -814,16 +814,16 @@
         <v>44351</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
         <v>44358</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -831,16 +831,16 @@
         <v>44351</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
         <v>44358</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -848,16 +848,16 @@
         <v>44351</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
         <v>44358</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -865,16 +865,16 @@
         <v>44351</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="7">
         <v>44358</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -882,16 +882,16 @@
         <v>44351</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="7">
         <v>44358</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -899,16 +899,16 @@
         <v>44354</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
         <v>44358</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -927,7 +927,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -956,16 +956,16 @@
         <v>44371</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="7">
         <v>44375</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -973,16 +973,16 @@
         <v>44371</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="7">
         <v>44375</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -990,16 +990,16 @@
         <v>44371</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="7">
         <v>44375</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1007,16 +1007,16 @@
         <v>44371</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="7">
         <v>44375</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1024,16 +1024,16 @@
         <v>44371</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="7">
         <v>44375</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1045,7 +1045,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1074,16 +1074,16 @@
         <v>44378</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="7">
         <v>44388</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
@@ -1093,10 +1093,10 @@
         <v>44387</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="7">
         <v>44388</v>
@@ -1110,16 +1110,16 @@
         <v>44388</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" s="7">
         <v>44388</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1127,10 +1127,10 @@
         <v>44388</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="7">
         <v>44388</v>
@@ -1142,10 +1142,10 @@
         <v>44380</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="7">
         <v>44388</v>
@@ -1157,16 +1157,16 @@
         <v>44381</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="7">
         <v>44388</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1174,16 +1174,16 @@
         <v>44388</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="7">
         <v>44388</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
@@ -1193,10 +1193,10 @@
         <v>44388</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42" s="7">
         <v>44388</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1243,16 +1243,16 @@
         <v>44394</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="7">
         <v>44397</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1260,10 +1260,10 @@
         <v>44392</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47" s="7">
         <v>44397</v>
@@ -1275,10 +1275,10 @@
         <v>44392</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D48" s="7">
         <v>44397</v>
@@ -1290,10 +1290,10 @@
         <v>44393</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D49" s="7">
         <v>44397</v>
@@ -1305,10 +1305,10 @@
         <v>44393</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D50" s="7">
         <v>44397</v>
@@ -1320,10 +1320,10 @@
         <v>44393</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D51" s="7">
         <v>44397</v>
@@ -1335,10 +1335,10 @@
         <v>44393</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D52" s="7">
         <v>44397</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1395,10 +1395,10 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -1406,10 +1406,10 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -1417,10 +1417,10 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -1428,10 +1428,10 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>

--- a/planilha tcc.xlsx
+++ b/planilha tcc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinnys2\Desktop\tcc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IFSP\tcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F641BB6C-79D6-4235-A633-CE1D0453CEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EED7C54-B93F-4EA4-825E-1D3C10836EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="75">
   <si>
     <t>Título do projeto:</t>
   </si>
@@ -200,16 +200,52 @@
     <t>Sprint 6</t>
   </si>
   <si>
-    <t>altera_dose</t>
-  </si>
-  <si>
-    <t>remove_dose</t>
-  </si>
-  <si>
     <t>criar_lote</t>
   </si>
   <si>
     <t>https://github.com/Vinnys2/tcc1.1</t>
+  </si>
+  <si>
+    <t>Início do desenvolvimento do relatório final</t>
+  </si>
+  <si>
+    <t>....</t>
+  </si>
+  <si>
+    <t>Aqui o inicio da criação do relatório, com introduções e ideias principais do tema.</t>
+  </si>
+  <si>
+    <t>agenda_dose</t>
+  </si>
+  <si>
+    <t>altera_lote</t>
+  </si>
+  <si>
+    <t>remove_lote</t>
+  </si>
+  <si>
+    <t>insere lote</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>fazer video</t>
+  </si>
+  <si>
+    <t>listar_lote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deu uns pequenos problemas na inicialização do banco, mas nada grave, acho que até domingo iremos conseguir resolver. </t>
+  </si>
+  <si>
+    <t>Sem problemas.</t>
+  </si>
+  <si>
+    <t>continuar relatório final</t>
+  </si>
+  <si>
+    <t>Fizemos algumas pesquisas e estamos indo bem.</t>
   </si>
 </sst>
 </file>
@@ -587,10 +623,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -768,7 +804,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1285,7 +1321,7 @@
       </c>
       <c r="E48" s="20"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>44393</v>
       </c>
@@ -1300,7 +1336,7 @@
       </c>
       <c r="E49" s="20"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>44393</v>
       </c>
@@ -1315,7 +1351,7 @@
       </c>
       <c r="E50" s="20"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>44393</v>
       </c>
@@ -1330,7 +1366,7 @@
       </c>
       <c r="E51" s="20"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>44393</v>
       </c>
@@ -1345,28 +1381,41 @@
       </c>
       <c r="E52" s="20"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>44402</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>58</v>
       </c>
@@ -1375,7 +1424,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -1392,65 +1441,112 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>44402</v>
+      </c>
       <c r="B58" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
+      <c r="C58" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="7">
+        <v>44409</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>44402</v>
+      </c>
       <c r="B59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="7">
+        <v>44409</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>44406</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C60" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="7">
+        <v>44409</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>44407</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="7">
+        <v>44409</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <v>44409</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="7">
+        <v>44409</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="19"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>44410</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="7">
+        <v>44409</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1465,44 +1561,72 @@
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
@@ -8010,7 +8134,10 @@
       <c r="E1000" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E53:H53"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="E41:G42"/>

--- a/planilha tcc.xlsx
+++ b/planilha tcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IFSP\tcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EED7C54-B93F-4EA4-825E-1D3C10836EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C8830D-9A05-4896-95DB-22C541A046D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
   <si>
     <t>Título do projeto:</t>
   </si>
@@ -173,9 +173,6 @@
     <t>altera_local</t>
   </si>
   <si>
-    <t>a fazer.</t>
-  </si>
-  <si>
     <t>remove_local</t>
   </si>
   <si>
@@ -218,12 +215,6 @@
     <t>agenda_dose</t>
   </si>
   <si>
-    <t>altera_lote</t>
-  </si>
-  <si>
-    <t>remove_lote</t>
-  </si>
-  <si>
     <t>insere lote</t>
   </si>
   <si>
@@ -231,9 +222,6 @@
   </si>
   <si>
     <t>fazer video</t>
-  </si>
-  <si>
-    <t>listar_lote</t>
   </si>
   <si>
     <t xml:space="preserve">Deu uns pequenos problemas na inicialização do banco, mas nada grave, acho que até domingo iremos conseguir resolver. </t>
@@ -246,6 +234,24 @@
   </si>
   <si>
     <t>Fizemos algumas pesquisas e estamos indo bem.</t>
+  </si>
+  <si>
+    <t>Feito durante as férias!</t>
+  </si>
+  <si>
+    <t>Projeto concluído e apresentado completamente ao orientador.</t>
+  </si>
+  <si>
+    <t>O projeto foi concluido porém encontramos erros e estamos a resolver.</t>
+  </si>
+  <si>
+    <t>mudar o o menu para um menu responsivo</t>
+  </si>
+  <si>
+    <t>a fazer</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
 </sst>
 </file>
@@ -394,13 +400,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -623,10 +629,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -641,23 +647,23 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -804,7 +810,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1110,7 +1116,7 @@
         <v>44378</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>37</v>
@@ -1119,7 +1125,7 @@
         <v>44388</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
@@ -1155,7 +1161,7 @@
         <v>44388</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1218,18 +1224,18 @@
       <c r="D41" s="7">
         <v>44388</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>44388</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>11</v>
@@ -1237,9 +1243,9 @@
       <c r="D42" s="7">
         <v>44388</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
@@ -1288,7 +1294,7 @@
         <v>44397</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1326,7 +1332,7 @@
         <v>44393</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>37</v>
@@ -1371,7 +1377,7 @@
         <v>44393</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>37</v>
@@ -1386,20 +1392,20 @@
         <v>44402</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E53" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
@@ -1417,7 +1423,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1454,18 +1460,18 @@
       <c r="D58" s="7">
         <v>44409</v>
       </c>
-      <c r="E58" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
+      <c r="E58" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>44402</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>37</v>
@@ -1474,7 +1480,7 @@
         <v>44409</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -1482,7 +1488,7 @@
         <v>44406</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>37</v>
@@ -1491,7 +1497,7 @@
         <v>44409</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -1499,7 +1505,7 @@
         <v>44407</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>37</v>
@@ -1508,7 +1514,7 @@
         <v>44409</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -1516,7 +1522,7 @@
         <v>44409</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>37</v>
@@ -1524,17 +1530,17 @@
       <c r="D62" s="7">
         <v>44409</v>
       </c>
-      <c r="E62" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="19"/>
+      <c r="E62" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>44410</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>37</v>
@@ -1543,7 +1549,7 @@
         <v>44409</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -1553,23 +1559,25 @@
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -1586,107 +1594,131 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <v>44413</v>
+      </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="2" t="s">
-        <v>65</v>
+      <c r="B70" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="6"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -8134,15 +8166,16 @@
       <c r="E1000" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E53:H53"/>
+  <mergeCells count="9">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="E41:G42"/>
     <mergeCell ref="E35:G36"/>
     <mergeCell ref="E46:E52"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E68:G68"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
